--- a/aichan/551339823597030315_2021-07-25_18-00-06.xlsx
+++ b/aichan/551339823597030315_2021-07-25_18-00-06.xlsx
@@ -1137,7 +1137,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6258,7 +6258,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6823,7 +6823,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9006,7 +9006,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9151,7 +9151,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="I140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -11524,7 +11524,7 @@
         </is>
       </c>
       <c r="I152" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12012,7 +12012,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -13792,7 +13792,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -14703,7 +14703,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -15359,7 +15359,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15430,7 +15430,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -16645,7 +16645,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -16783,7 +16783,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17279,7 +17279,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17358,7 +17358,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -17689,7 +17689,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18511,7 +18511,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18871,7 +18871,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19147,7 +19147,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -20496,7 +20496,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20788,7 +20788,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21443,7 +21443,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21577,7 +21577,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21652,7 +21652,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -22502,7 +22502,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -23008,7 +23008,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25125,7 +25125,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -25329,7 +25329,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25476,7 +25476,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -25896,7 +25896,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -28304,7 +28304,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -28887,7 +28887,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -29392,7 +29392,7 @@
         </is>
       </c>
       <c r="I404" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J404" t="inlineStr">
         <is>
@@ -30059,7 +30059,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -30138,7 +30138,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -30882,7 +30882,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31406,7 +31406,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -32157,7 +32157,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -32437,7 +32437,7 @@
         </is>
       </c>
       <c r="I445" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J445" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -33823,7 +33823,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -34929,7 +34929,7 @@
         </is>
       </c>
       <c r="I479" t="n">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="J479" t="inlineStr">
         <is>
@@ -35229,7 +35229,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35827,7 +35827,7 @@
         </is>
       </c>
       <c r="I491" t="n">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J491" t="inlineStr">
         <is>
@@ -36192,7 +36192,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K496" t="inlineStr">
@@ -36587,7 +36587,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K501" t="inlineStr">
@@ -37859,7 +37859,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -41494,11 +41494,11 @@
         </is>
       </c>
       <c r="I568" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K568" t="inlineStr">
@@ -42066,7 +42066,7 @@
         </is>
       </c>
       <c r="I576" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J576" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         </is>
       </c>
       <c r="I581" t="n">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="J581" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         </is>
       </c>
       <c r="I582" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J582" t="inlineStr">
         <is>
@@ -43547,7 +43547,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -45350,7 +45350,7 @@
         </is>
       </c>
       <c r="I621" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J621" t="inlineStr">
         <is>
@@ -45429,7 +45429,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
@@ -45991,7 +45991,7 @@
         </is>
       </c>
       <c r="I630" t="n">
-        <v>2455</v>
+        <v>2486</v>
       </c>
       <c r="J630" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K633" t="inlineStr">

--- a/aichan/551339823597030315_2021-07-25_18-00-06.xlsx
+++ b/aichan/551339823597030315_2021-07-25_18-00-06.xlsx
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -12793,7 +12793,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         </is>
       </c>
       <c r="I286" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J286" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J287" t="inlineStr">
         <is>
@@ -25550,7 +25550,7 @@
         </is>
       </c>
       <c r="I350" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -27685,7 +27685,7 @@
         </is>
       </c>
       <c r="I380" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J380" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G388" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         </is>
       </c>
       <c r="I407" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J407" t="inlineStr">
         <is>
@@ -31702,7 +31702,7 @@
         </is>
       </c>
       <c r="I435" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J435" t="inlineStr">
         <is>
@@ -35141,7 +35141,7 @@
         </is>
       </c>
       <c r="F482" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G482" t="inlineStr">
         <is>
@@ -35154,7 +35154,7 @@
         </is>
       </c>
       <c r="I482" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J482" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         </is>
       </c>
       <c r="I494" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -37041,7 +37041,7 @@
         </is>
       </c>
       <c r="I507" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J507" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         </is>
       </c>
       <c r="I541" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J541" t="inlineStr">
         <is>
@@ -41264,7 +41264,7 @@
         </is>
       </c>
       <c r="F565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G565" t="inlineStr">
         <is>
@@ -41719,7 +41719,7 @@
         </is>
       </c>
       <c r="I571" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J571" t="inlineStr">
         <is>
@@ -42278,7 +42278,7 @@
         </is>
       </c>
       <c r="F579" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G579" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         </is>
       </c>
       <c r="I579" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J579" t="inlineStr">
         <is>
@@ -42678,7 +42678,7 @@
         </is>
       </c>
       <c r="I584" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="J584" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         </is>
       </c>
       <c r="I585" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J585" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         </is>
       </c>
       <c r="I624" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J624" t="inlineStr">
         <is>
@@ -46216,7 +46216,7 @@
         </is>
       </c>
       <c r="I633" t="n">
-        <v>2498</v>
+        <v>2503</v>
       </c>
       <c r="J633" t="inlineStr">
         <is>

--- a/aichan/551339823597030315_2021-07-25_18-00-06.xlsx
+++ b/aichan/551339823597030315_2021-07-25_18-00-06.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-04 11:17:40</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44412.47060185186</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-04 11:06:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44412.46293981482</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -697,10 +709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-03 10:18:37</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44411.42959490741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -764,10 +774,8 @@
           <t>5037952382</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-31 19:46:03</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44408.82364583333</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -849,10 +857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-31 18:48:13</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44408.78348379629</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -916,10 +922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-31 08:54:28</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44408.3711574074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -991,10 +995,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-31 02:35:18</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44408.10784722222</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1066,10 +1068,8 @@
           <t>5029518180</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-30 19:05:49</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44407.79570601852</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1137,10 +1137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-30 13:19:55</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44407.55549768519</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1218,10 +1216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:16:40</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44407.05324074074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1285,10 +1281,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-30 01:15:42</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44407.05256944444</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1352,10 +1346,8 @@
           <t>5023503899</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-29 23:31:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44406.9800925926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1423,10 +1415,8 @@
           <t>5019774063</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-29 15:54:45</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44406.66302083333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1498,10 +1488,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:50</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44406.60752314814</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1569,10 +1557,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:34:31</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44406.60730324074</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1640,10 +1626,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:04:55</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44406.58674768519</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1711,10 +1695,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-29 14:04:19</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44406.58633101852</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1782,10 +1764,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:30:43</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44406.56299768519</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1853,10 +1833,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:29:55</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44406.56244212963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1924,10 +1902,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:27:30</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44406.56076388889</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1995,10 +1971,8 @@
           <t>5018699640</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:19:54</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44406.55548611111</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:16:14</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44406.55293981481</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2133,10 +2105,8 @@
           <t>5018737280</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:15:45</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44406.55260416667</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2204,10 +2174,8 @@
           <t>5018699640</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-29 13:12:13</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44406.55015046296</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2275,10 +2243,8 @@
           <t>5018562743</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:54:23</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44406.53776620371</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2346,10 +2312,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:48:01</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44406.53334490741</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2425,10 +2389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-29 12:47:30</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44406.53298611111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2492,10 +2454,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-29 11:37:25</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44406.48431712963</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2559,10 +2519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-29 09:53:53</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44406.41241898148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2634,10 +2592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-29 08:46:43</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44406.36577546296</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2710,10 +2666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-28 22:30:28</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44405.93782407408</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2783,10 +2737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-28 19:00:29</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44405.79200231482</v>
       </c>
       <c r="I33" t="n">
         <v>7</v>
@@ -2854,10 +2806,8 @@
           <t>5012006189</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-28 17:20:19</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44405.72244212963</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2930,10 +2880,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-28 17:05:43</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44405.71230324074</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3009,10 +2957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-28 10:12:47</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44405.42554398148</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3084,10 +3030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-28 09:39:49</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44405.40265046297</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3155,10 +3099,8 @@
           <t>4999984401</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-28 09:14:46</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44405.38525462963</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3230,10 +3172,8 @@
           <t>5008627981</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-28 08:57:23</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44405.37318287037</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3297,10 +3237,8 @@
           <t>4988643248</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-28 08:16:20</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44405.34467592592</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3372,10 +3310,8 @@
           <t>4999984401</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-28 02:48:00</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44405.11666666667</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3449,10 +3385,8 @@
           <t>5007331094</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:30:52</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44405.02143518518</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3520,10 +3454,8 @@
           <t>5007322705</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-28 00:30:20</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44405.02106481481</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3591,10 +3523,8 @@
           <t>5001755678</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:16:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44404.92795138889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3658,10 +3588,8 @@
           <t>5001755678</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-27 22:16:07</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44404.9278587963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3725,10 +3653,8 @@
           <t>5004241338</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-27 18:17:28</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44404.76212962963</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3796,10 +3722,8 @@
           <t>5003261012</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-27 16:01:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44404.66797453703</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3875,10 +3799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-27 14:09:11</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44404.58971064815</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3938,10 +3860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-27 14:03:19</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44404.58563657408</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4005,10 +3925,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-27 12:43:19</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44404.53008101852</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4077,10 +3995,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-27 12:42:31</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44404.52952546296</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4149,10 +4065,8 @@
           <t>5001755678</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-27 12:23:43</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44404.51646990741</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4220,10 +4134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-27 10:48:18</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44404.45020833334</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4285,10 +4197,8 @@
           <t>4996327624</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-27 10:20:13</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44404.43070601852</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4356,10 +4266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:52:28</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44404.36976851852</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4431,10 +4339,8 @@
           <t>4999531100</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:45:24</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44404.36486111111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4494,10 +4400,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-27 08:11:25</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44404.34126157407</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4569,10 +4473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-27 06:39:16</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44404.27726851852</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4632,10 +4534,8 @@
           <t>4999984401</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-27 06:15:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44404.26050925926</v>
       </c>
       <c r="I59" t="n">
         <v>3</v>
@@ -4707,10 +4607,8 @@
           <t>4999531100</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-27 01:38:37</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44404.0684837963</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4780,10 +4678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-27 01:00:57</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44404.04232638889</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4860,10 +4756,8 @@
           <t>4999352581</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:58:17</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44404.04047453704</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4939,10 +4833,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-27 00:56:39</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44404.03934027778</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5018,10 +4910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-26 23:24:13</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44403.97515046296</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5089,10 +4979,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-26 22:32:24</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44403.93916666666</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5164,10 +5052,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-26 22:16:44</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44403.92828703704</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5236,10 +5122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-26 22:14:31</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44403.92674768518</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5308,10 +5192,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-26 19:42:04</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44403.82087962963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5396,10 +5278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-26 19:08:11</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44403.79734953704</v>
       </c>
       <c r="I69" t="n">
         <v>127</v>
@@ -5475,10 +5355,8 @@
           <t>4996635842</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-26 19:00:23</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44403.79193287037</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5546,10 +5424,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:24:11</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44403.76679398148</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5617,10 +5493,8 @@
           <t>4996327624</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:20:17</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44403.76408564814</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5692,10 +5566,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:17:51</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44403.76239583334</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5759,10 +5631,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:15:24</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44403.76069444444</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5830,10 +5700,8 @@
           <t>4996273558</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:13:08</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44403.75912037037</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5901,10 +5769,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:11:25</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44403.75792824074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5968,10 +5834,8 @@
           <t>4996254480</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:11:05</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44403.75769675926</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6039,10 +5903,8 @@
           <t>4996214348</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:05:21</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44403.75371527778</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6110,10 +5972,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-26 18:02:00</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44403.75138888889</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6181,10 +6041,8 @@
           <t>4996165651</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:58:15</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44403.74878472222</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6252,10 +6110,8 @@
           <t>4996080609</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:46:05</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44403.74033564814</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6327,10 +6183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:42:01</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44403.73751157407</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6402,10 +6256,8 @@
           <t>4995907373</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:20:56</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44403.72287037037</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -6473,10 +6325,8 @@
           <t>4995906056</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:20:20</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44403.7224537037</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6541,10 +6391,8 @@
           <t>4995852971</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:13:03</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44403.71739583334</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6604,10 +6452,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:12:02</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44403.71668981481</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6675,10 +6521,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:03:57</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44403.71107638889</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6750,10 +6594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:03:13</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44403.71056712963</v>
       </c>
       <c r="I88" t="n">
         <v>4</v>
@@ -6825,10 +6667,8 @@
           <t>4995784325</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:02:41</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44403.71019675926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6900,10 +6740,8 @@
           <t>4993646080</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-26 17:02:13</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44403.70987268518</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6975,10 +6813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:54:36</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44403.70458333333</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7042,10 +6878,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:27:42</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44403.68590277778</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7109,10 +6943,8 @@
           <t>4995497869</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:17:07</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44403.67855324074</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7172,10 +7004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:13:19</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44403.67591435185</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7297,10 +7127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:00:14</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44403.6668287037</v>
       </c>
       <c r="I95" t="n">
         <v>7</v>
@@ -7403,10 +7231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-26 16:00:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44403.66668981482</v>
       </c>
       <c r="I96" t="n">
         <v>32</v>
@@ -7510,10 +7336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:59:43</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44403.66646990741</v>
       </c>
       <c r="I97" t="n">
         <v>2</v>
@@ -7586,10 +7410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:59:28</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44403.66629629629</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7696,10 +7518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:59:20</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44403.6662037037</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
@@ -7769,10 +7589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:59:08</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44403.66606481482</v>
       </c>
       <c r="I100" t="n">
         <v>3</v>
@@ -7832,10 +7650,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:48:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44403.65866898148</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7911,10 +7727,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:47:34</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44403.65803240741</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7990,10 +7804,8 @@
           <t>4995314561</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:46:32</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44403.65731481482</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -8069,10 +7881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:45:14</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44403.65641203704</v>
       </c>
       <c r="I104" t="n">
         <v>34</v>
@@ -8140,10 +7950,8 @@
           <t>4995283566</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:40:40</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44403.65324074074</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8208,10 +8016,8 @@
           <t>4995242139</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-26 15:34:25</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44403.64890046296</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8275,10 +8081,8 @@
           <t>4994715017</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:00:27</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44403.58364583334</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8342,10 +8146,8 @@
           <t>4994708558</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-26 14:00:04</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44403.58337962963</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8409,10 +8211,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-26 13:10:33</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44403.54899305556</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8480,10 +8280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:56:07</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44403.53896990741</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8547,10 +8345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:50:23</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44403.53498842593</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8622,10 +8418,8 @@
           <t>4994212688</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:46:06</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44403.53201388889</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8701,10 +8495,8 @@
           <t>4994152399</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:37:47</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44403.52623842593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8780,10 +8572,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:37:30</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44403.52604166666</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8859,10 +8649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:31:42</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44403.52201388889</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8938,10 +8726,8 @@
           <t>4988836088</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:28:28</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44403.51976851852</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9005,10 +8791,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:12:21</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44403.50857638889</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9072,10 +8856,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:11:06</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44403.50770833333</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9143,10 +8925,8 @@
           <t>4993938792</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:10:56</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44403.50759259259</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9221,10 +9001,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:09:32</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44403.50662037037</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9299,10 +9077,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:08:07</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44403.50563657407</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9366,10 +9142,8 @@
           <t>4993646080</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-26 12:06:48</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44403.50472222222</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9433,10 +9207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:58:57</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44403.49927083333</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9504,10 +9276,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:54:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44403.49635416667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9575,10 +9345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:49:09</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44403.49246527778</v>
       </c>
       <c r="I125" t="n">
         <v>42</v>
@@ -9654,10 +9422,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:45:46</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44403.49011574074</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9733,10 +9499,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:45:09</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44403.4896875</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9804,10 +9568,8 @@
           <t>4992063635</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:45:04</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44403.48962962963</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9883,10 +9645,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:44:35</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44403.48929398148</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9954,10 +9714,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:43:28</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44403.48851851852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10033,10 +9791,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:41:46</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44403.48733796296</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10104,10 +9860,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:40:44</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44403.48662037037</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10183,10 +9937,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:39:41</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44403.4858912037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10254,10 +10006,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:39:30</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44403.48576388889</v>
       </c>
       <c r="I134" t="n">
         <v>7</v>
@@ -10333,10 +10083,8 @@
           <t>4993646080</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:38:09</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44403.48482638889</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -10400,10 +10148,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:35:58</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44403.48331018518</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10467,10 +10213,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:35:15</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44403.4828125</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10534,10 +10278,8 @@
           <t>4993646080</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:34:17</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44403.48214120371</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10597,10 +10339,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:33:55</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44403.48188657407</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10668,10 +10408,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:33:33</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44403.48163194444</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10739,10 +10477,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:33:10</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44403.48136574074</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10806,10 +10542,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:31:29</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44403.48019675926</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10877,10 +10611,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:30:56</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44403.47981481482</v>
       </c>
       <c r="I143" t="n">
         <v>5</v>
@@ -10944,10 +10676,8 @@
           <t>4993643615</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:27:10</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44403.47719907408</v>
       </c>
       <c r="I144" t="n">
         <v>6</v>
@@ -11016,10 +10746,8 @@
           <t>4993646080</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:26:44</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44403.47689814815</v>
       </c>
       <c r="I145" t="n">
         <v>2</v>
@@ -11088,10 +10816,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:26:44</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44403.47689814815</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11155,10 +10881,8 @@
           <t>4993638933</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:26:11</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44403.4765162037</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11226,10 +10950,8 @@
           <t>4993635431</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:24:24</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44403.47527777778</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11305,10 +11027,8 @@
           <t>4993625038</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:23:06</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44403.474375</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11384,10 +11104,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:18:32</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44403.4712037037</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -11451,10 +11169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:14:38</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44403.46849537037</v>
       </c>
       <c r="I151" t="n">
         <v>6</v>
@@ -11514,10 +11230,8 @@
           <t>4993542842</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-26 11:10:20</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44403.46550925926</v>
       </c>
       <c r="I152" t="n">
         <v>3</v>
@@ -11585,10 +11299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:18:22</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44403.4294212963</v>
       </c>
       <c r="I153" t="n">
         <v>4</v>
@@ -11664,10 +11376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-26 10:12:47</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44403.42554398148</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11743,10 +11453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:53:05</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44403.41186342593</v>
       </c>
       <c r="I155" t="n">
         <v>26</v>
@@ -11810,10 +11518,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:41:58</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44403.40414351852</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11877,10 +11583,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:40:54</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44403.40340277777</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11944,10 +11648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:22:41</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44403.39075231482</v>
       </c>
       <c r="I158" t="n">
         <v>15</v>
@@ -12011,10 +11713,8 @@
           <t>4992937735</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:20:31</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44403.38924768518</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12083,10 +11783,8 @@
           <t>4992945161</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:19:58</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44403.38886574074</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12155,10 +11853,8 @@
           <t>4992929873</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:19:30</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44403.38854166667</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12227,10 +11923,8 @@
           <t>4991437083</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:19:03</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44403.38822916667</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12299,10 +11993,8 @@
           <t>4992923703</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:17:51</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44403.38739583334</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12371,10 +12063,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:14:11</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44403.38484953704</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12442,10 +12132,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:10:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44403.38256944445</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12509,10 +12197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-26 09:04:00</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44403.37777777778</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12576,10 +12262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:44:39</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44403.36434027777</v>
       </c>
       <c r="I167" t="n">
         <v>7</v>
@@ -12657,10 +12341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:29:27</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44403.35378472223</v>
       </c>
       <c r="I168" t="n">
         <v>37</v>
@@ -12724,10 +12406,8 @@
           <t>4992701534</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:24:26</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44403.35030092593</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12800,10 +12480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-26 08:22:12</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44403.34875</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12867,10 +12545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:50:20</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44403.32662037037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12942,10 +12618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:49:48</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44403.32625</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13017,10 +12691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:28:23</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44403.31137731481</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13084,10 +12756,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:04:39</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44403.29489583334</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13152,10 +12822,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-26 07:04:33</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44403.29482638889</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13220,10 +12888,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:51:45</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44403.2859375</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13287,10 +12953,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:48:03</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44403.28336805556</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13355,10 +13019,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:46:51</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44403.28253472222</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13422,10 +13084,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:43:41</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44403.28033564815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13493,10 +13153,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-26 06:43:33</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44403.28024305555</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13564,10 +13222,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-26 05:14:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44403.21842592592</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13632,10 +13288,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-26 05:05:45</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44403.21232638889</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13700,10 +13354,8 @@
           <t>4992333713</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-26 05:02:14</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44403.20988425926</v>
       </c>
       <c r="I183" t="n">
         <v>2</v>
@@ -13771,10 +13423,8 @@
           <t>4992063635</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:08:59</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44403.08957175926</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13838,10 +13488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-26 02:03:30</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44403.08576388889</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -13940,10 +13588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:36:31</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44403.06702546297</v>
       </c>
       <c r="I186" t="n">
         <v>12</v>
@@ -14007,10 +13653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:18:33</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44403.05454861111</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14070,10 +13714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:14:38</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44403.0518287037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14141,10 +13783,8 @@
           <t>4990773109</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:10:33</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44403.04899305556</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14208,10 +13848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:08:39</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44403.04767361111</v>
       </c>
       <c r="I190" t="n">
         <v>4</v>
@@ -14271,10 +13909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:08:18</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44403.04743055555</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14338,10 +13974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:08:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44403.04733796296</v>
       </c>
       <c r="I192" t="n">
         <v>9</v>
@@ -14401,10 +14035,8 @@
           <t>4990998970</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-26 01:01:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44403.04243055556</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14480,10 +14112,8 @@
           <t>4991707778</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:40:32</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44403.02814814815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14559,10 +14189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:33:42</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44403.02340277778</v>
       </c>
       <c r="I195" t="n">
         <v>8</v>
@@ -14630,10 +14258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:31:22</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44403.02178240741</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14697,10 +14323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:28:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44403.01982638889</v>
       </c>
       <c r="I197" t="n">
         <v>11</v>
@@ -14776,10 +14400,8 @@
           <t>4989007496</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:28:26</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44403.01974537037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14847,10 +14469,8 @@
           <t>4991620630</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:25:49</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44403.01792824074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14918,10 +14538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:18:59</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44403.01318287037</v>
       </c>
       <c r="I200" t="n">
         <v>5</v>
@@ -14997,10 +14615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:17:47</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44403.01234953704</v>
       </c>
       <c r="I201" t="n">
         <v>12</v>
@@ -15076,10 +14692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:15:54</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44403.01104166666</v>
       </c>
       <c r="I202" t="n">
         <v>9</v>
@@ -15143,10 +14757,8 @@
           <t>4990517994</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:12:52</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44403.00893518519</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15222,10 +14834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:11:08</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44403.00773148148</v>
       </c>
       <c r="I204" t="n">
         <v>5</v>
@@ -15301,10 +14911,8 @@
           <t>4990517994</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:10:00</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44403.00694444445</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15364,10 +14972,8 @@
           <t>4991492287</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-26 00:06:34</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44403.00456018518</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15435,10 +15041,8 @@
           <t>4991195695</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:58:25</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44402.99890046296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15507,10 +15111,8 @@
           <t>4991437083</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:57:59</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44402.99859953704</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15574,10 +15176,8 @@
           <t>4991425721</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:56:33</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44402.99760416667</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15645,10 +15245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:56:30</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44402.99756944444</v>
       </c>
       <c r="I210" t="n">
         <v>7</v>
@@ -15712,10 +15310,8 @@
           <t>4991405109</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:53:05</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44402.99519675926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15783,10 +15379,8 @@
           <t>4991314993</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:42:52</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44402.98810185185</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15858,10 +15452,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:31:00</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44402.97986111111</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15925,10 +15517,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:26:54</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44402.97701388889</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15992,10 +15582,8 @@
           <t>4991195695</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:26:08</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44402.97648148148</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16063,10 +15651,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:26:02</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44402.97641203704</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16134,10 +15720,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:24:26</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44402.97530092593</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16201,10 +15785,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:19:49</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44402.97209490741</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16272,10 +15854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:14:48</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44402.96861111111</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16339,10 +15919,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:11:31</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44402.96633101852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16406,10 +15984,8 @@
           <t>4991007822</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:03:06</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44402.96048611111</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16481,10 +16057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:02:19</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44402.95994212963</v>
       </c>
       <c r="I222" t="n">
         <v>13</v>
@@ -16560,10 +16134,8 @@
           <t>4990998970</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:02:17</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44402.95991898148</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16635,10 +16207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:02:16</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44402.95990740741</v>
       </c>
       <c r="I224" t="n">
         <v>5</v>
@@ -16714,10 +16284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-25 23:02:11</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44402.95984953704</v>
       </c>
       <c r="I225" t="n">
         <v>5</v>
@@ -16793,10 +16361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:46:45</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44402.94913194444</v>
       </c>
       <c r="I226" t="n">
         <v>2</v>
@@ -16860,10 +16426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:38:42</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44402.94354166667</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16927,10 +16491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:38:25</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44402.94334490741</v>
       </c>
       <c r="I228" t="n">
         <v>5</v>
@@ -16998,10 +16560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:36:21</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44402.94190972222</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17069,10 +16629,8 @@
           <t>4990773109</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:34:15</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44402.94045138889</v>
       </c>
       <c r="I230" t="n">
         <v>5</v>
@@ -17140,10 +16698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:33:31</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44402.93994212963</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17216,10 +16772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:28:45</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44402.93663194445</v>
       </c>
       <c r="I232" t="n">
         <v>9</v>
@@ -17283,10 +16837,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:25:29</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44402.93436342593</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17354,10 +16906,8 @@
           <t>4990649054</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:20:24</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44402.93083333333</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17421,10 +16971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:08:20</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44402.9224537037</v>
       </c>
       <c r="I235" t="n">
         <v>10</v>
@@ -17494,10 +17042,8 @@
           <t>4990517994</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:07:44</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44402.92203703704</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17573,10 +17119,8 @@
           <t>4990517994</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:04:15</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44402.91961805556</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17636,10 +17180,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-25 22:00:52</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44402.91726851852</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17703,10 +17245,8 @@
           <t>4988663746</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:50:22</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44402.90997685185</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17766,10 +17306,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:45:02</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44402.90627314815</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17837,10 +17375,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:44:27</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44402.90586805555</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17904,10 +17440,8 @@
           <t>4990342350</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:42:53</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44402.90478009259</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17971,10 +17505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:42:40</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44402.90462962963</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18046,10 +17578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:41:03</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44402.90350694444</v>
       </c>
       <c r="I244" t="n">
         <v>6</v>
@@ -18117,10 +17647,8 @@
           <t>4988643248</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:35:28</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44402.89962962963</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18184,10 +17712,8 @@
           <t>4990141863</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:18:53</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44402.88811342593</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18247,10 +17773,8 @@
           <t>4988643248</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:14:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44402.88489583333</v>
       </c>
       <c r="I247" t="n">
         <v>3</v>
@@ -18314,10 +17838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:13:47</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44402.88457175926</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18385,10 +17907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:12:52</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44402.88393518519</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18460,10 +17980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:10:20</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44402.88217592592</v>
       </c>
       <c r="I250" t="n">
         <v>6</v>
@@ -18525,10 +18043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:10:08</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44402.88203703704</v>
       </c>
       <c r="I251" t="n">
         <v>8</v>
@@ -18588,10 +18104,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:10:05</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44402.88200231481</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18655,10 +18169,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-25 21:05:40</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44402.87893518519</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18726,10 +18238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:57:45</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44402.8734375</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18797,10 +18307,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:53:49</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44402.87070601852</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18864,10 +18372,8 @@
           <t>4989626475</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:49:46</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44402.86789351852</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18943,10 +18449,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:49:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44402.86767361111</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19015,10 +18519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:48:45</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44402.8671875</v>
       </c>
       <c r="I258" t="n">
         <v>8</v>
@@ -19086,10 +18588,8 @@
           <t>4989833645</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:44:43</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44402.86438657407</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19157,10 +18657,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:33:17</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44402.85644675926</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19224,10 +18722,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:33:04</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44402.8562962963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19295,10 +18791,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:30:35</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44402.85457175926</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19362,10 +18856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:28:28</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44402.85310185186</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19437,10 +18929,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:25:51</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44402.85128472222</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19508,10 +18998,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:23:25</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44402.84959490741</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19575,10 +19063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:21:55</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44402.84855324074</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19638,10 +19124,8 @@
           <t>4989626475</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:19:12</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44402.84666666666</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -19717,10 +19201,8 @@
           <t>4989617973</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:18:20</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44402.84606481482</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19796,10 +19278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:17:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44402.8452662037</v>
       </c>
       <c r="I269" t="n">
         <v>16</v>
@@ -19867,10 +19347,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:16:10</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44402.84456018519</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -19934,10 +19412,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:15:08</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44402.84384259259</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20005,10 +19481,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:14:05</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44402.84311342592</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -20072,10 +19546,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:13:37</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44402.84278935185</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20143,10 +19615,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:13:01</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44402.84237268518</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20210,10 +19680,8 @@
           <t>4989575971</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:11:36</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44402.84138888889</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20281,10 +19749,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:10:43</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44402.84077546297</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20352,10 +19818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:08:28</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44402.83921296296</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20419,10 +19883,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:07:26</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44402.83849537037</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20486,10 +19948,8 @@
           <t>4989514804</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:07:17</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44402.8383912037</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20553,10 +20013,8 @@
           <t>4989514804</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:04:03</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44402.83614583333</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20632,10 +20090,8 @@
           <t>4989154965</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:03:41</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44402.8358912037</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -20711,10 +20167,8 @@
           <t>4988794989</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:02:51</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44402.8353125</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20790,10 +20244,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:02:48</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44402.83527777778</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20861,10 +20313,8 @@
           <t>4989505960</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:01:58</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44402.83469907408</v>
       </c>
       <c r="I284" t="n">
         <v>5</v>
@@ -20932,10 +20382,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:00:46</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44402.83386574074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21003,10 +20451,8 @@
           <t>4989492379</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-25 20:00:30</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44402.83368055556</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21082,10 +20528,8 @@
           <t>4989490860</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:59:52</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44402.83324074074</v>
       </c>
       <c r="I287" t="n">
         <v>3</v>
@@ -21153,10 +20597,8 @@
           <t>4989479394</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:59:21</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44402.83288194444</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21224,10 +20666,8 @@
           <t>4989154965</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:59:01</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44402.83265046297</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21295,10 +20735,8 @@
           <t>4989478480</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:58:55</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44402.83258101852</v>
       </c>
       <c r="I290" t="n">
         <v>4</v>
@@ -21366,10 +20804,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:58:50</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44402.83252314815</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21437,10 +20873,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:58:35</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44402.83234953704</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21508,10 +20942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:57:06</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44402.83131944444</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21579,10 +21011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:54:18</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44402.829375</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21658,10 +21088,8 @@
           <t>4989435172</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:51:16</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44402.82726851852</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -21725,10 +21153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:50:55</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44402.82702546296</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21792,10 +21218,8 @@
           <t>4988836088</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:49:30</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44402.82604166667</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -21867,10 +21291,8 @@
           <t>4989378196</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:44:47</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44402.8227662037</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -21946,10 +21368,8 @@
           <t>4989230405</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:40:50</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44402.82002314815</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22021,10 +21441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:39:39</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44402.81920138889</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22100,10 +21518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:38:18</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44402.81826388889</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22163,10 +21579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:37:07</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44402.81744212963</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22230,10 +21644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:36:27</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44402.81697916667</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22309,10 +21721,8 @@
           <t>4989298870</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:33:48</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44402.81513888889</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22388,10 +21798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:54</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44402.81381944445</v>
       </c>
       <c r="I305" t="n">
         <v>4</v>
@@ -22451,10 +21859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:48</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44402.81375</v>
       </c>
       <c r="I306" t="n">
         <v>2</v>
@@ -22521,10 +21927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:40</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44402.81365740741</v>
       </c>
       <c r="I307" t="n">
         <v>8</v>
@@ -22587,10 +21991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:34</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44402.81358796296</v>
       </c>
       <c r="I308" t="n">
         <v>8</v>
@@ -22654,10 +22056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:31</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44402.81355324074</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -22717,10 +22117,8 @@
           <t>4989283824</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:31:25</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44402.81348379629</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -22796,10 +22194,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:30:52</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44402.81310185185</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -22864,10 +22260,8 @@
           <t>4989230405</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:30:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44402.81266203704</v>
       </c>
       <c r="I312" t="n">
         <v>7</v>
@@ -22937,10 +22331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:29:17</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44402.81200231481</v>
       </c>
       <c r="I313" t="n">
         <v>6</v>
@@ -23010,10 +22402,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:27:48</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44402.81097222222</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23081,10 +22471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:24:39</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44402.80878472222</v>
       </c>
       <c r="I315" t="n">
         <v>3</v>
@@ -23148,10 +22536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:23:50</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44402.8082175926</v>
       </c>
       <c r="I316" t="n">
         <v>1</v>
@@ -23223,10 +22609,8 @@
           <t>4989230405</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:22:53</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44402.80755787037</v>
       </c>
       <c r="I317" t="n">
         <v>23</v>
@@ -23298,10 +22682,8 @@
           <t>4989230248</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:22:49</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44402.80751157407</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23375,10 +22757,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:22:06</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44402.80701388889</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23442,10 +22822,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:21:30</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44402.80659722222</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23509,10 +22887,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:20:45</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44402.80607638889</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23577,10 +22953,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:20:26</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44402.80585648148</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23644,10 +23018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:19:50</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44402.80543981482</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23715,10 +23087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:18:46</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44402.80469907408</v>
       </c>
       <c r="I324" t="n">
         <v>4</v>
@@ -23794,10 +23164,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:17:17</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44402.80366898148</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -23862,10 +23230,8 @@
           <t>4989154965</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:16:50</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44402.80335648148</v>
       </c>
       <c r="I326" t="n">
         <v>1</v>
@@ -23930,10 +23296,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:16:41</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44402.80325231481</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -23998,10 +23362,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:16:04</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44402.80282407408</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24065,10 +23427,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:15:43</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44402.80258101852</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24133,10 +23493,8 @@
           <t>4988643248</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:15:32</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44402.80245370371</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24212,10 +23570,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:15:27</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44402.80239583334</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24280,10 +23636,8 @@
           <t>4989146362</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:15:17</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44402.80228009259</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24348,10 +23702,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:14:11</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44402.8015162037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24416,10 +23768,8 @@
           <t>4989154965</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:13:54</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44402.80131944444</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24495,10 +23845,8 @@
           <t>4989149410</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:13:20</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44402.80092592593</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -24574,10 +23922,8 @@
           <t>4989146362</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:13:10</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44402.80081018519</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24647,10 +23993,8 @@
           <t>4989148378</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:12:53</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44402.80061342593</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24715,10 +24059,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:12:24</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44402.80027777778</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24786,10 +24128,8 @@
           <t>4989146362</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:11:58</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44402.79997685185</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -24855,10 +24195,8 @@
           <t>4989144211</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:11:42</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44402.79979166666</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -24923,10 +24261,8 @@
           <t>4989142574</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:11:05</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44402.79936342593</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25002,10 +24338,8 @@
           <t>4989142127</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:10:54</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44402.79923611111</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25070,10 +24404,8 @@
           <t>4989136938</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:10:36</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44402.79902777778</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25138,10 +24470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:09:53</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44402.79853009259</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25209,10 +24539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:09:44</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44402.79842592592</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25272,10 +24600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:09:32</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44402.79828703704</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25340,10 +24666,8 @@
           <t>4989127519</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:09:03</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44402.79795138889</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25408,10 +24732,8 @@
           <t>4989122814</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:08:51</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44402.7978125</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -25476,10 +24798,8 @@
           <t>4989126442</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:08:39</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44402.79767361111</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25544,10 +24864,8 @@
           <t>4988923531</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:08:27</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44402.79753472222</v>
       </c>
       <c r="I350" t="n">
         <v>3</v>
@@ -25623,10 +24941,8 @@
           <t>4989121721</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:08:23</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44402.79748842592</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -25691,10 +25007,8 @@
           <t>4989117832</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:08:02</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44402.79724537037</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25770,10 +25084,8 @@
           <t>4989114726</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:07:57</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44402.7971875</v>
       </c>
       <c r="I353" t="n">
         <v>3</v>
@@ -25838,10 +25150,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:07:45</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44402.79704861111</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -25905,10 +25215,8 @@
           <t>4989115763</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:07:06</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44402.79659722222</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -25973,10 +25281,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:06:41</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44402.79630787037</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26040,10 +25346,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:06:07</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44402.79591435185</v>
       </c>
       <c r="I357" t="n">
         <v>13</v>
@@ -26111,10 +25415,8 @@
           <t>4988690114</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:05:59</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44402.79582175926</v>
       </c>
       <c r="I358" t="n">
         <v>1</v>
@@ -26178,10 +25480,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:05:57</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44402.79579861111</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26257,10 +25557,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:05:40</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44402.79560185185</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26328,10 +25626,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:04:24</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44402.79472222222</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26407,10 +25703,8 @@
           <t>4989083135</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:03:43</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44402.79424768518</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26479,10 +25773,8 @@
           <t>4988782960</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:02:33</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44402.7934375</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26558,10 +25850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:01:40</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44402.79282407407</v>
       </c>
       <c r="I364" t="n">
         <v>8</v>
@@ -26633,10 +25923,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:01:26</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44402.79266203703</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -26704,10 +25992,8 @@
           <t>4989061560</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:01:25</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44402.79265046296</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26771,10 +26057,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:00:26</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44402.7919675926</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -26839,10 +26123,8 @@
           <t>4989061560</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:00:20</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44402.79189814815</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -26910,10 +26192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:00:17</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44402.79186342593</v>
       </c>
       <c r="I369" t="n">
         <v>5</v>
@@ -26989,10 +26269,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-25 19:00:13</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44402.79181712963</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27056,10 +26334,8 @@
           <t>4989049376</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:59:29</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44402.79130787037</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27123,10 +26399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:58:58</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44402.79094907407</v>
       </c>
       <c r="I372" t="n">
         <v>7</v>
@@ -27190,10 +26464,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:58:41</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44402.79075231482</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27257,10 +26529,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:57:31</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44402.78994212963</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27324,10 +26594,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:55:38</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44402.78863425926</v>
       </c>
       <c r="I375" t="n">
         <v>2</v>
@@ -27399,10 +26667,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:55:30</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44402.78854166667</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27466,10 +26732,8 @@
           <t>4989025599</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:55:15</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44402.78836805555</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27537,10 +26801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:54:57</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44402.78815972222</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27612,10 +26874,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:54:41</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44402.78797453704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27679,10 +26939,8 @@
           <t>4989016626</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:54:16</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44402.78768518518</v>
       </c>
       <c r="I380" t="n">
         <v>16</v>
@@ -27750,10 +27008,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:53:38</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44402.78724537037</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27817,10 +27073,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:53:18</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44402.78701388889</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -27884,10 +27138,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:52:53</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44402.78672453704</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -27951,10 +27203,8 @@
           <t>4989007496</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:52:45</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44402.78663194444</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28030,10 +27280,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:52:16</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44402.7862962963</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28097,10 +27345,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:52:06</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44402.78618055556</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28164,10 +27410,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:51:53</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44402.78603009259</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28239,10 +27483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:51:39</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44402.78586805556</v>
       </c>
       <c r="I388" t="n">
         <v>4</v>
@@ -28310,10 +27552,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:51:36</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44402.78583333334</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28377,10 +27617,8 @@
           <t>4988992435</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:50:40</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44402.78518518519</v>
       </c>
       <c r="I390" t="n">
         <v>3</v>
@@ -28456,10 +27694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:50:36</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44402.78513888889</v>
       </c>
       <c r="I391" t="n">
         <v>63</v>
@@ -28519,10 +27755,8 @@
           <t>4988991290</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:50:12</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44402.78486111111</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -28595,10 +27829,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:49:08</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44402.78412037037</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -28662,10 +27894,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:48:37</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44402.78376157407</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -28729,10 +27959,8 @@
           <t>4988975646</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:47:50</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44402.78321759259</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -28801,10 +28029,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:47:47</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44402.78318287037</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -28881,10 +28107,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:47:20</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44402.78287037037</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -28948,10 +28172,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:46:58</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44402.78261574074</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29027,10 +28249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:46:41</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44402.78241898148</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29102,10 +28322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:45:28</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44402.78157407408</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29173,10 +28391,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:45:20</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44402.78148148148</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29240,10 +28456,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:44:44</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44402.78106481482</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29307,10 +28521,8 @@
           <t>4988948002</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:44:42</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44402.78104166667</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -29386,10 +28598,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:44:37</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44402.7809837963</v>
       </c>
       <c r="I404" t="n">
         <v>5</v>
@@ -29461,10 +28671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:43:06</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44402.77993055555</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -29532,10 +28740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:42:21</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44402.77940972222</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -29611,10 +28817,8 @@
           <t>4988923531</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:41:29</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44402.77880787037</v>
       </c>
       <c r="I407" t="n">
         <v>32</v>
@@ -29686,10 +28890,8 @@
           <t>4988910109</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:39:19</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44402.77730324074</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -29765,10 +28967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:39:02</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44402.77710648148</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -29836,10 +29036,8 @@
           <t>4988687683</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:38:10</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44402.77650462963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -29915,10 +29113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:38:09</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44402.77649305556</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -29978,10 +29174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:37:10</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44402.77581018519</v>
       </c>
       <c r="I412" t="n">
         <v>4</v>
@@ -30053,10 +29247,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:36:40</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44402.77546296296</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30132,10 +29324,8 @@
           <t>4988890660</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:35:42</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44402.77479166666</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30199,10 +29389,8 @@
           <t>4988836088</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:34:48</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44402.77416666667</v>
       </c>
       <c r="I415" t="n">
         <v>2</v>
@@ -30274,10 +29462,8 @@
           <t>4988868490</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:34:27</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44402.77392361111</v>
       </c>
       <c r="I416" t="n">
         <v>4</v>
@@ -30353,10 +29539,8 @@
           <t>4988836088</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:33:37</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44402.77334490741</v>
       </c>
       <c r="I417" t="n">
         <v>6</v>
@@ -30426,10 +29610,8 @@
           <t>4988863003</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:32:41</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44402.77269675926</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -30493,10 +29675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:32:02</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44402.77224537037</v>
       </c>
       <c r="I419" t="n">
         <v>3</v>
@@ -30564,10 +29744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:31:53</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44402.77214120371</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -30643,10 +29821,8 @@
           <t>4988839146</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:30:10</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44402.77094907407</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30714,10 +29890,8 @@
           <t>4988782960</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:29:55</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44402.77077546297</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -30793,10 +29967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:29:47</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44402.77068287037</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -30872,10 +30044,8 @@
           <t>4988837677</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:29:30</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44402.77048611111</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -30951,10 +30121,8 @@
           <t>4988750907</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:29:21</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44402.77038194444</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31026,10 +30194,8 @@
           <t>4988834190</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:29:11</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44402.7702662037</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31097,10 +30263,8 @@
           <t>4988836088</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:28:44</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44402.7699537037</v>
       </c>
       <c r="I427" t="n">
         <v>2</v>
@@ -31172,10 +30336,8 @@
           <t>4988690114</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:28:39</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44402.76989583333</v>
       </c>
       <c r="I428" t="n">
         <v>4</v>
@@ -31243,10 +30405,8 @@
           <t>4988794989</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:23:38</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44402.76641203704</v>
       </c>
       <c r="I429" t="n">
         <v>10</v>
@@ -31322,10 +30482,8 @@
           <t>4988750907</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:23:17</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44402.76616898148</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31393,10 +30551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:23:01</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44402.76598379629</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31472,10 +30628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:22:54</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44402.76590277778</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31554,10 +30708,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:22:50</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44402.76585648148</v>
       </c>
       <c r="I433" t="n">
         <v>1</v>
@@ -31621,10 +30773,8 @@
           <t>4988690114</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:22:29</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44402.76561342592</v>
       </c>
       <c r="I434" t="n">
         <v>6</v>
@@ -31696,10 +30846,8 @@
           <t>4988790872</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:22:00</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44402.76527777778</v>
       </c>
       <c r="I435" t="n">
         <v>4</v>
@@ -31767,10 +30915,8 @@
           <t>4988782960</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:21:43</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44402.76508101852</v>
       </c>
       <c r="I436" t="n">
         <v>16</v>
@@ -31838,10 +30984,8 @@
           <t>4988790191</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:21:43</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44402.76508101852</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -31913,10 +31057,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:21:42</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44402.76506944445</v>
       </c>
       <c r="I438" t="n">
         <v>10</v>
@@ -31992,10 +31134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:21:19</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44402.76480324074</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32063,10 +31203,8 @@
           <t>4988778224</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:20:55</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44402.76452546296</v>
       </c>
       <c r="I440" t="n">
         <v>8</v>
@@ -32135,10 +31273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:20:46</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44402.7644212963</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32214,10 +31350,8 @@
           <t>4988663746</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:20:28</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44402.76421296296</v>
       </c>
       <c r="I442" t="n">
         <v>3</v>
@@ -32293,10 +31427,8 @@
           <t>4988687683</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:19:27</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44402.76350694444</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32372,10 +31504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:19:21</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44402.7634375</v>
       </c>
       <c r="I444" t="n">
         <v>1</v>
@@ -32443,10 +31573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:19:20</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44402.76342592593</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32510,10 +31638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:18:56</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44402.76314814815</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32577,10 +31703,8 @@
           <t>4988759980</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:18:56</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44402.76314814815</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -32656,10 +31780,8 @@
           <t>4988643248</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:18:49</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44402.76306712963</v>
       </c>
       <c r="I448" t="n">
         <v>56</v>
@@ -32735,10 +31857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:18:02</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44402.76252314815</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32814,10 +31934,8 @@
           <t>4988750907</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:17:55</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44402.76244212963</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -32881,10 +31999,8 @@
           <t>4988753313</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:17:41</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44402.76228009259</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -32948,10 +32064,8 @@
           <t>4988757184</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:17:39</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44402.76225694444</v>
       </c>
       <c r="I452" t="n">
         <v>16</v>
@@ -33027,10 +32141,8 @@
           <t>4988749862</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:17:36</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44402.76222222222</v>
       </c>
       <c r="I453" t="n">
         <v>7</v>
@@ -33106,10 +32218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:17:33</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44402.7621875</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33178,10 +32288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:40</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44402.76157407407</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33245,10 +32353,8 @@
           <t>4988750907</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:40</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44402.76157407407</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33320,10 +32426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:28</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44402.76143518519</v>
       </c>
       <c r="I457" t="n">
         <v>1</v>
@@ -33391,10 +32495,8 @@
           <t>4988651854</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:19</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44402.76133101852</v>
       </c>
       <c r="I458" t="n">
         <v>3</v>
@@ -33470,10 +32572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:13</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44402.76126157407</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33541,10 +32641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:16:06</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44402.76118055556</v>
       </c>
       <c r="I460" t="n">
         <v>2</v>
@@ -33612,10 +32710,8 @@
           <t>4988687683</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:15:35</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44402.76082175926</v>
       </c>
       <c r="I461" t="n">
         <v>2</v>
@@ -33679,10 +32775,8 @@
           <t>4988715687</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:15:26</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44402.7607175926</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33750,10 +32844,8 @@
           <t>4988715687</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:15:18</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44402.760625</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33829,10 +32921,8 @@
           <t>4988715687</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:14:52</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44402.76032407407</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -33896,10 +32986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:14:41</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44402.76019675926</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -33975,10 +33063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:52</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44402.75962962963</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34038,10 +33124,8 @@
           <t>4988728964</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:48</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44402.75958333333</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34105,10 +33189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:35</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44402.75943287037</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34176,10 +33258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:22</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44402.75928240741</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34259,10 +33339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:19</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44402.75924768519</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34338,10 +33416,8 @@
           <t>4988727806</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:13:19</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44402.75924768519</v>
       </c>
       <c r="I471" t="n">
         <v>3</v>
@@ -34409,10 +33485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:12:51</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44402.75892361111</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34484,10 +33558,8 @@
           <t>4988720600</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:12:22</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44402.75858796296</v>
       </c>
       <c r="I473" t="n">
         <v>3</v>
@@ -34559,10 +33631,8 @@
           <t>4988661917</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:12:17</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44402.75853009259</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34638,10 +33708,8 @@
           <t>4988716274</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:12:14</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44402.75849537037</v>
       </c>
       <c r="I475" t="n">
         <v>2</v>
@@ -34709,10 +33777,8 @@
           <t>4988715687</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:12:00</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44402.75833333333</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34784,10 +33850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:49</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44402.75820601852</v>
       </c>
       <c r="I477" t="n">
         <v>1</v>
@@ -34864,10 +33928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:44</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44402.75814814815</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -34943,10 +34005,8 @@
           <t>4988703721</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:29</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44402.75797453704</v>
       </c>
       <c r="I479" t="n">
         <v>2</v>
@@ -35014,10 +34074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:27</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44402.75795138889</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35081,10 +34139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:25</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44402.75792824074</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35148,10 +34204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:19</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44402.7578587963</v>
       </c>
       <c r="I482" t="n">
         <v>945</v>
@@ -35227,10 +34281,8 @@
           <t>4988687683</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:18</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44402.75784722222</v>
       </c>
       <c r="I483" t="n">
         <v>4</v>
@@ -35298,10 +34350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:11</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44402.7577662037</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35369,10 +34419,8 @@
           <t>4988651854</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:09</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44402.75774305555</v>
       </c>
       <c r="I485" t="n">
         <v>24</v>
@@ -35444,10 +34492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:11:07</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44402.75771990741</v>
       </c>
       <c r="I486" t="n">
         <v>1</v>
@@ -35529,10 +34575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:59</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44402.75762731482</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -35596,10 +34640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:49</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44402.75751157408</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35675,10 +34717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:44</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44402.75745370371</v>
       </c>
       <c r="I489" t="n">
         <v>1</v>
@@ -35750,10 +34790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:41</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44402.75741898148</v>
       </c>
       <c r="I490" t="n">
         <v>3</v>
@@ -35829,10 +34867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:19</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44402.75716435185</v>
       </c>
       <c r="I491" t="n">
         <v>3</v>
@@ -35904,10 +34940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:10:01</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44402.75695601852</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -35971,10 +35005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:09:43</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44402.75674768518</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36046,10 +35078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:09:35</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44402.75665509259</v>
       </c>
       <c r="I494" t="n">
         <v>321</v>
@@ -36119,10 +35149,8 @@
           <t>4988687683</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:09:15</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44402.75642361111</v>
       </c>
       <c r="I495" t="n">
         <v>3</v>
@@ -36198,10 +35226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:59</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44402.75623842593</v>
       </c>
       <c r="I496" t="n">
         <v>29</v>
@@ -36269,10 +35295,8 @@
           <t>4988687683</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:40</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44402.75601851852</v>
       </c>
       <c r="I497" t="n">
         <v>4</v>
@@ -36336,10 +35360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:33</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44402.7559375</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36407,10 +35429,8 @@
           <t>4988691671</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:26</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44402.75585648148</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36486,10 +35506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:25</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44402.75584490741</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -36565,10 +35583,8 @@
           <t>4988695781</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:19</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44402.75577546296</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36644,10 +35660,8 @@
           <t>4988663746</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:17</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44402.75575231481</v>
       </c>
       <c r="I502" t="n">
         <v>22</v>
@@ -36723,10 +35737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:09</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44402.75565972222</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36802,10 +35814,8 @@
           <t>4988690805</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:06</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44402.755625</v>
       </c>
       <c r="I504" t="n">
         <v>23</v>
@@ -36881,10 +35891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:08:05</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44402.75561342593</v>
       </c>
       <c r="I505" t="n">
         <v>23</v>
@@ -36956,10 +35964,8 @@
           <t>4988690114</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:50</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44402.75543981481</v>
       </c>
       <c r="I506" t="n">
         <v>16</v>
@@ -37035,10 +36041,8 @@
           <t>4988651854</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:48</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44402.75541666667</v>
       </c>
       <c r="I507" t="n">
         <v>9</v>
@@ -37114,10 +36118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:41</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44402.75533564815</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37189,10 +36191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:38</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44402.75530092593</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37256,10 +36256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:31</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44402.75521990741</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37335,10 +36333,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:14</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44402.75502314815</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37414,10 +36410,8 @@
           <t>4988678499</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:07:13</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44402.75501157407</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37481,10 +36475,8 @@
           <t>4988673905</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:06:56</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44402.75481481481</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37552,10 +36544,8 @@
           <t>4988682132</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:06:47</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44402.75471064815</v>
       </c>
       <c r="I514" t="n">
         <v>12</v>
@@ -37624,10 +36614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:06:32</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44402.75453703704</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37703,10 +36691,8 @@
           <t>4988681340</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:06:28</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44402.75449074074</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37774,10 +36760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:06:13</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44402.75431712963</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -37853,10 +36837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:57</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44402.75413194444</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -37928,10 +36910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:53</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44402.75408564815</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -37999,10 +36979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:46</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44402.75400462963</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38074,10 +37052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:46</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44402.75400462963</v>
       </c>
       <c r="I521" t="n">
         <v>3</v>
@@ -38145,10 +37121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:43</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44402.7539699074</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38216,10 +37190,8 @@
           <t>4988671100</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:41</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44402.75394675926</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38287,10 +37259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:33</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44402.75385416667</v>
       </c>
       <c r="I524" t="n">
         <v>1</v>
@@ -38354,10 +37324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:30</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44402.75381944444</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38433,10 +37401,8 @@
           <t>4988662792</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:24</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44402.75375</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38500,10 +37466,8 @@
           <t>4988663746</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:23</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44402.75373842593</v>
       </c>
       <c r="I527" t="n">
         <v>18</v>
@@ -38575,10 +37539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:17</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44402.75366898148</v>
       </c>
       <c r="I528" t="n">
         <v>2</v>
@@ -38646,10 +37608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:14</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44402.75363425926</v>
       </c>
       <c r="I529" t="n">
         <v>11</v>
@@ -38717,10 +37677,8 @@
           <t>4988663315</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:13</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44402.75362268519</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -38788,10 +37746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:12</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44402.75361111111</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38875,10 +37831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:08</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44402.75356481481</v>
       </c>
       <c r="I532" t="n">
         <v>25</v>
@@ -38950,10 +37904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:03</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44402.75350694444</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39017,10 +37969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:03</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44402.75350694444</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39092,10 +38042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:02</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44402.75349537037</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39159,10 +38107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:02</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44402.75349537037</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39230,10 +38176,8 @@
           <t>4988662792</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:05:00</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44402.75347222222</v>
       </c>
       <c r="I537" t="n">
         <v>3</v>
@@ -39297,10 +38241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:57</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44402.7534375</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39364,10 +38306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:48</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44402.75333333333</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39435,10 +38375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:47</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44402.75332175926</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39506,10 +38444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:43</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44402.75327546296</v>
       </c>
       <c r="I541" t="n">
         <v>203</v>
@@ -39569,10 +38505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:41</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44402.75325231482</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39636,10 +38570,8 @@
           <t>4988661917</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:39</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44402.75322916666</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -39703,10 +38635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:38</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44402.7532175926</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -39782,10 +38712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:36</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44402.75319444444</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -39861,10 +38789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:31</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44402.75313657407</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -39928,10 +38854,8 @@
           <t>4988658539</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:30</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44402.753125</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40009,10 +38933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:17</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44402.75297453703</v>
       </c>
       <c r="I548" t="n">
         <v>5</v>
@@ -40076,10 +38998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:16</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44402.75296296296</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40155,10 +39075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:11</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44402.7529050926</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40226,10 +39144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:10</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44402.75289351852</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40297,10 +39213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:07</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44402.7528587963</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -40413,10 +39327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:04:03</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44402.7528125</v>
       </c>
       <c r="I553" t="n">
         <v>4</v>
@@ -40482,10 +39394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:58</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44402.75275462963</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40553,10 +39463,8 @@
           <t>4988660063</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:55</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44402.75271990741</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -40628,10 +39536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:52</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44402.75268518519</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -40695,10 +39601,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:48</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44402.75263888889</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -40770,10 +39674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:36</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44402.7525</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40845,10 +39747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:35</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44402.75248842593</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -40916,10 +39816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:31</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44402.75244212963</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -40991,10 +39889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:28</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44402.75240740741</v>
       </c>
       <c r="I561" t="n">
         <v>1</v>
@@ -41066,10 +39962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:27</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44402.75239583333</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41133,10 +40027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:23</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44402.75234953704</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41196,10 +40088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:15</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44402.75225694444</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41271,10 +40161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:15</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44402.75225694444</v>
       </c>
       <c r="I565" t="n">
         <v>2</v>
@@ -41350,10 +40238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:14</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44402.75224537037</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41425,10 +40311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:13</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44402.75223379629</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41504,10 +40388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:13</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44402.75223379629</v>
       </c>
       <c r="I568" t="n">
         <v>2</v>
@@ -41567,10 +40449,8 @@
           <t>4988655637</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:12</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44402.75222222223</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41642,10 +40522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:03:01</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44402.75209490741</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41713,10 +40591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:53</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44402.75200231482</v>
       </c>
       <c r="I571" t="n">
         <v>186</v>
@@ -41784,10 +40660,8 @@
           <t>4988651854</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:47</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44402.75193287037</v>
       </c>
       <c r="I572" t="n">
         <v>37</v>
@@ -41855,10 +40729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:44</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44402.75189814815</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -41926,10 +40798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:41</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44402.75186342592</v>
       </c>
       <c r="I574" t="n">
         <v>4</v>
@@ -41993,10 +40863,8 @@
           <t>4988644004</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:30</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44402.75173611111</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42072,10 +40940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:26</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44402.75168981482</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42143,10 +41009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:24</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44402.75166666666</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42218,10 +41082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:23</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44402.75165509259</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42285,10 +41147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:23</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44402.75165509259</v>
       </c>
       <c r="I579" t="n">
         <v>330</v>
@@ -42360,10 +41220,8 @@
           <t>4988646031</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:21</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44402.75163194445</v>
       </c>
       <c r="I580" t="n">
         <v>2</v>
@@ -42439,10 +41297,8 @@
           <t>4988646054</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:21</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44402.75163194445</v>
       </c>
       <c r="I581" t="n">
         <v>2</v>
@@ -42518,10 +41374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:15</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44402.7515625</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42605,10 +41459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:12</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44402.75152777778</v>
       </c>
       <c r="I583" t="n">
         <v>4</v>
@@ -42672,10 +41524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:11</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44402.7515162037</v>
       </c>
       <c r="I584" t="n">
         <v>1005</v>
@@ -42747,10 +41597,8 @@
           <t>4988643248</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:11</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44402.7515162037</v>
       </c>
       <c r="I585" t="n">
         <v>153</v>
@@ -42818,10 +41666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:04</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44402.75143518519</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -42890,10 +41736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:02:00</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44402.75138888889</v>
       </c>
       <c r="I587" t="n">
         <v>1</v>
@@ -42965,10 +41809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:56</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44402.75134259259</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43036,10 +41878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:53</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44402.75130787037</v>
       </c>
       <c r="I589" t="n">
         <v>3</v>
@@ -43111,10 +41951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:51</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44402.75128472222</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43190,10 +42028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:51</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44402.75128472222</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43257,10 +42093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:48</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44402.75125</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43328,10 +42162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:47</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44402.75123842592</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43403,10 +42235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:42</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44402.75118055556</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43482,10 +42312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:39</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44402.75114583333</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -43553,10 +42381,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:35</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44402.75109953704</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -43620,10 +42446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:31</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44402.75105324074</v>
       </c>
       <c r="I597" t="n">
         <v>5</v>
@@ -43691,10 +42515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:28</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44402.75101851852</v>
       </c>
       <c r="I598" t="n">
         <v>3</v>
@@ -43762,10 +42584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:27</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44402.75100694445</v>
       </c>
       <c r="I599" t="n">
         <v>5</v>
@@ -43841,10 +42661,8 @@
           <t>4988638134</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:27</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44402.75100694445</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -43908,10 +42726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:26</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44402.75099537037</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -43979,10 +42795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:23</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44402.75096064815</v>
       </c>
       <c r="I602" t="n">
         <v>4</v>
@@ -44050,10 +42864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:23</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44402.75096064815</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44121,10 +42933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:20</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44402.75092592592</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44188,10 +42998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:19</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44402.75091435185</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44263,10 +43071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:19</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44402.75091435185</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44334,10 +43140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:17</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44402.7508912037</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44405,10 +43209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:16</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44402.75087962963</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44484,10 +43286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:14</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44402.75085648148</v>
       </c>
       <c r="I609" t="n">
         <v>2</v>
@@ -44551,10 +43351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:11</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44402.75082175926</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44618,10 +43416,8 @@
           <t>4988632851</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:10</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44402.75081018519</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44685,10 +43481,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:09</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44402.75079861111</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -44764,10 +43558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:08</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44402.75078703704</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -44839,10 +43631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:06</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44402.75076388889</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -44918,10 +43708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:04</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44402.75074074074</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -44989,10 +43777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:03</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44402.75072916667</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45056,10 +43842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:02</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44402.75071759259</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45127,10 +43911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:00</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44402.75069444445</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45198,10 +43980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:01:00</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44402.75069444445</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45273,10 +44053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:57</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44402.75065972222</v>
       </c>
       <c r="I620" t="n">
         <v>7</v>
@@ -45348,10 +44126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:57</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44402.75065972222</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45427,10 +44203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:56</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44402.75064814815</v>
       </c>
       <c r="I622" t="n">
         <v>3</v>
@@ -45494,10 +44268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:55</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44402.75063657408</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45569,10 +44341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:53</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44402.75061342592</v>
       </c>
       <c r="I624" t="n">
         <v>374</v>
@@ -45644,10 +44414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:52</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44402.75060185185</v>
       </c>
       <c r="I625" t="n">
         <v>14</v>
@@ -45715,10 +44483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:52</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44402.75060185185</v>
       </c>
       <c r="I626" t="n">
         <v>2</v>
@@ -45790,10 +44556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:47</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44402.75054398148</v>
       </c>
       <c r="I627" t="n">
         <v>70</v>
@@ -45857,10 +44621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:47</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44402.75054398148</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -45924,10 +44686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:46</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44402.75053240741</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -45995,10 +44755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:45</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44402.75052083333</v>
       </c>
       <c r="I630" t="n">
         <v>13</v>
@@ -46068,10 +44826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:44</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44402.75050925926</v>
       </c>
       <c r="I631" t="n">
         <v>1</v>
@@ -46139,10 +44895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:42</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44402.75048611111</v>
       </c>
       <c r="I632" t="n">
         <v>104</v>
@@ -46210,10 +44964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:40</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44402.75046296296</v>
       </c>
       <c r="I633" t="n">
         <v>2503</v>
@@ -46289,10 +45041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:38</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44402.75043981482</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -46364,10 +45114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:38</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44402.75043981482</v>
       </c>
       <c r="I635" t="n">
         <v>3</v>
@@ -46439,10 +45187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:36</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44402.75041666667</v>
       </c>
       <c r="I636" t="n">
         <v>2</v>
@@ -46506,10 +45252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:35</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44402.75040509259</v>
       </c>
       <c r="I637" t="n">
         <v>2</v>
@@ -46577,10 +45321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:31</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44402.75035879629</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -46652,10 +45394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:29</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44402.75033564815</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -46727,10 +45467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:27</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44402.7503125</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -46802,10 +45540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:20</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44402.75023148148</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -46869,10 +45605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-07-25 18:00:16</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44402.75018518518</v>
       </c>
       <c r="I642" t="n">
         <v>1</v>
